--- a/.test.xlsx
+++ b/.test.xlsx
@@ -12,21 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>VISA</t>
   </si>
   <si>
-    <t>Volvo</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Mazda</t>
+    <t>"GLOSA</t>
+  </si>
+  <si>
+    <t>VIGENTE</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>CUENTA</t>
+  </si>
+  <si>
+    <t>AUX</t>
+  </si>
+  <si>
+    <t>CENCO</t>
+  </si>
+  <si>
+    <t>SUC</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>MONEDA"</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D3"/>
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -168,6 +186,24 @@
       <c r="D3" t="s" s="3">
         <v>4</v>
       </c>
+      <c r="E3" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s" s="3">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
